--- a/medicine/Sexualité et sexologie/Patrick_Califia/Patrick_Califia.xlsx
+++ b/medicine/Sexualité et sexologie/Patrick_Califia/Patrick_Califia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patrick Califia (d'abord connu sous le nom de Pat Califia, né en 1954 près de Corpus Christi) est un spécialiste de la sexualité féminine et de la littérature érotique. C'est aussi un homme trans bisexuel.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Califia est né de sexe féminin dans une famille mormone. Il s'affirme ouvertement lesbienne en 1971 à Salt Lake City, et prend le nom de Pat Califia ; Califia d'après une Amazone mythologique. Après un travail de prise de conscience, il s'achète un aller simple pour San Francisco en 1973, développant son intérêt pour l'éducation sexuelle en travaillant à la ligne d'écoute d'information sexuelle de San Francisco.
 Son premier livre, Sapphistry, décrit la sexualité butch-femme et les pratiques S/M sans jugement de valeur. Il publie d'autres travaux dans des magazines lesbiens, gay et féministes et poursuit des recherches pour obtenir un diplôme de psychologie à l'université d'État de San Francisco qui sont publiées dans le Journal of Homosexuality en 1979.
 Avec la fondation du groupe de lesbiennes S/M SAMOIS, ses centres d'intérêt se déplacent sur l'expérience lesbienne du S/M et il contribua au livre collectif Coming to Power. En 1996 Califia coédite (avec Robin Sweeney) sa suite, The Second Coming: A Leatherdyke Reader. Califia crée le trimestriel des « femmes cuir » Venus Infers en 1992.
 Durant cette période, Califia écrit également sur les queer studies, les études trans et l'identité de genre, assumant un questionnement personnel. C'est à cette époque que Califia prend la décision d'exprimer publiquement son identité masculine. Il suit un traitement hormonal à base de testostérone et prend le nom de Patrick.
-En 1992, Califia fonde la revue trimestrielle Venus Infers et publie un article intitulé "Feminism, Paedophilia, and Children's Rights" dans un hors-série du journal pro-pédophilie Paidika. Califia a affirmé ensuite qu’il apporte toujours son soutien à la revue Paidikia et qu’il a apprécié travailler avec les rédacteurs pour ce hors-série[1]. Dans son article, il affirme que toutes les lois de mise en place d’un âge de consentement légal devraient être combattues, et poursuit en définissant la pédophilie comme une « initiation érotique »[2]. Dans Public Sex : The Culture of Radical Sex, Califia critique les lois contre l’abus des enfants et contre la pornographie infantile car elles seraient appliquées de façon disproportionnée à l’encontre des hommes gays. Il ajoute qu’il « connaît plusieurs hommes gays fiers de se décrire eux-mêmes comme des “boy-lovers” », et critique les lois fédérales qui garantissent la disparition de l’imagerie de pornographie infantile des étagères de livres pour adultes[2]. Par ailleurs, Califia a apporté son soutien à l’organisation pro-pédophile North American Man/Boy Love Association[3]. Après être devenu parent, Califia remet en cause ses propos sur l’âge de consentement legal : « J’étais naïf au sujet des problématiques de développement qui rendent inacceptable le sexe entre des adultes et des enfants prépubères », « je suis devenu bien plus cynique sur la capacité des adultes à écouter les enfants », « peut-être parce que je suis devenu parent, je suis moins idéaliste sur les possibilités d’une relation enfant/adulte égalitaire »[2].
-Depuis les années 1990, Califia souffre d'une fibromyalgie, qui endommage les nerfs de ses jambes et de ses mains et réduit ses capacités à écrire ou taper à la machine. Il travaille actuellement comme thérapeute privé, à la suite de l'obtention d'un diplôme de thérapie conjugale et de thérapie familiale de l'État de Californie. Il continue de publier ses écrits et participe aux événements de la communauté cuir. Il a un fils avec son ancien compagnon Matt Rice, un homme trans. Pat Califia a aussi publié sous le nom de Patrick Califia-Rice[4].
+En 1992, Califia fonde la revue trimestrielle Venus Infers et publie un article intitulé "Feminism, Paedophilia, and Children's Rights" dans un hors-série du journal pro-pédophilie Paidika. Califia a affirmé ensuite qu’il apporte toujours son soutien à la revue Paidikia et qu’il a apprécié travailler avec les rédacteurs pour ce hors-série. Dans son article, il affirme que toutes les lois de mise en place d’un âge de consentement légal devraient être combattues, et poursuit en définissant la pédophilie comme une « initiation érotique ». Dans Public Sex : The Culture of Radical Sex, Califia critique les lois contre l’abus des enfants et contre la pornographie infantile car elles seraient appliquées de façon disproportionnée à l’encontre des hommes gays. Il ajoute qu’il « connaît plusieurs hommes gays fiers de se décrire eux-mêmes comme des “boy-lovers” », et critique les lois fédérales qui garantissent la disparition de l’imagerie de pornographie infantile des étagères de livres pour adultes. Par ailleurs, Califia a apporté son soutien à l’organisation pro-pédophile North American Man/Boy Love Association. Après être devenu parent, Califia remet en cause ses propos sur l’âge de consentement legal : « J’étais naïf au sujet des problématiques de développement qui rendent inacceptable le sexe entre des adultes et des enfants prépubères », « je suis devenu bien plus cynique sur la capacité des adultes à écouter les enfants », « peut-être parce que je suis devenu parent, je suis moins idéaliste sur les possibilités d’une relation enfant/adulte égalitaire ».
+Depuis les années 1990, Califia souffre d'une fibromyalgie, qui endommage les nerfs de ses jambes et de ses mains et réduit ses capacités à écrire ou taper à la machine. Il travaille actuellement comme thérapeute privé, à la suite de l'obtention d'un diplôme de thérapie conjugale et de thérapie familiale de l'État de Californie. Il continue de publier ses écrits et participe aux événements de la communauté cuir. Il a un fils avec son ancien compagnon Matt Rice, un homme trans. Pat Califia a aussi publié sous le nom de Patrick Califia-Rice.
 Son dernier livre s'intitule Boy in the Middle, un recueil de récits érotiques. Il travaille actuellement sur divers projets, dont un livre sur la sexualité des hommes trans.
 Ses œuvres pornographiques ont souvent été saisies par la douane canadienne jusqu'à ce qu'il porte l'affaire devant les tribunaux, pour leur permettre de passer la frontière. Après coup, il s'amusa d'apprendre que le livre de la féministe anti-porno Catherine Itzin, Pornography: Women, Violence and Civil Liberties subit le même sort grâce à la loi qu'elle avait contribué à imposer, même après que les livres de Califia eurent été jugés comme acceptables par cette même loi.
 </t>
